--- a/風格測驗一計分.xlsx
+++ b/風格測驗一計分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6a0100d65916a50/桌面/group-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6ADB460-0D1B-4EDB-8D6C-6851BAD80514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C6ADB460-0D1B-4EDB-8D6C-6851BAD80514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716D5FFD-629B-47EF-B574-66ADB1C0D993}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24C223E0-1F07-4D86-8524-513901D98295}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>爬山</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿上衣時你喜歡?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寬鬆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿褲子時你喜歡?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>穿搭你最注重的是?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你喜歡哪種風格?(約找五組)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你較常都穿哪種衣服</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>不知道怎麼挑衣服</t>
   </si>
   <si>
-    <t xml:space="preserve">我的穿搭沒信心 </t>
-  </si>
-  <si>
     <t>我沒時間研究穿搭</t>
   </si>
   <si>
@@ -185,7 +170,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他問題</t>
+    <t>穿衣服時你喜歡?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我對穿搭沒信心 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他問題(不計分)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列哪種風格你最喜歡?(約找五組)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0075AF6-5477-471E-BF2B-496A30720867}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -611,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -635,7 +632,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -652,151 +649,134 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -805,21 +785,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100273C2953D476D946A7F30A327CE7791D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aaee027325e84605f9d7c68240a39d2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49cd7b62-f0a9-4627-9f20-5bb4b53371fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d9fb8531f5608c3c87a2dbe7f70ca0f" ns3:_="">
     <xsd:import namespace="49cd7b62-f0a9-4627-9f20-5bb4b53371fa"/>
@@ -951,31 +916,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A815010F-4D78-43EB-9202-5ECC7A0D687D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="49cd7b62-f0a9-4627-9f20-5bb4b53371fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB1412E-1C51-49B4-85F1-18F4F3FEC7B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FCC102-4855-4C6B-8EB3-38E6888FF996}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -991,4 +947,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB1412E-1C51-49B4-85F1-18F4F3FEC7B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A815010F-4D78-43EB-9202-5ECC7A0D687D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="49cd7b62-f0a9-4627-9f20-5bb4b53371fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/風格測驗一計分.xlsx
+++ b/風格測驗一計分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6a0100d65916a50/桌面/group-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C6ADB460-0D1B-4EDB-8D6C-6851BAD80514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716D5FFD-629B-47EF-B574-66ADB1C0D993}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{C6ADB460-0D1B-4EDB-8D6C-6851BAD80514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB18C16-44CB-4B65-A801-758C513F1BFF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24C223E0-1F07-4D86-8524-513901D98295}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>爬山</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <t>看展覽</t>
   </si>
   <si>
-    <t>看展覽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逛街</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,72 +113,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>休閒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請選擇偏好服裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你對目前你的穿搭風格有什麼看法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想改變目前風格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我想要增加一些其他風格 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我不清楚我目前的風格 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">你目前遇到穿搭困擾是? </t>
+  </si>
+  <si>
+    <t>不知道怎麼挑衣服</t>
+  </si>
+  <si>
+    <t>我沒時間研究穿搭</t>
+  </si>
+  <si>
+    <t>計分問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿衣服時你喜歡?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我對穿搭沒信心 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他問題(不計分)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列哪種風格你最喜歡?(約找五組)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當你有一筆預算能買一件單品 你會買?</t>
+  </si>
+  <si>
     <t>你較常都穿哪種衣服</t>
-  </si>
-  <si>
-    <t>休閒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請選擇偏好服裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你對目前你的穿搭風格有什麼看法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想改變目前風格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我想要增加一些其他風格 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">我不清楚我目前的風格 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">你目前遇到穿搭困擾是? </t>
-  </si>
-  <si>
-    <t>不知道怎麼挑衣服</t>
-  </si>
-  <si>
-    <t>我沒時間研究穿搭</t>
-  </si>
-  <si>
-    <t>計分問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿衣服時你喜歡?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">我對穿搭沒信心 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他問題(不計分)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下列哪種風格你最喜歡?(約找五組)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝咖啡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,6 +312,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,15 +615,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0075AF6-5477-471E-BF2B-496A30720867}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.90625" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
     <col min="2" max="2" width="21.90625" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="27.81640625" customWidth="1"/>
@@ -608,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -632,159 +656,192 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100273C2953D476D946A7F30A327CE7791D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aaee027325e84605f9d7c68240a39d2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49cd7b62-f0a9-4627-9f20-5bb4b53371fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d9fb8531f5608c3c87a2dbe7f70ca0f" ns3:_="">
     <xsd:import namespace="49cd7b62-f0a9-4627-9f20-5bb4b53371fa"/>
@@ -916,22 +973,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A815010F-4D78-43EB-9202-5ECC7A0D687D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="49cd7b62-f0a9-4627-9f20-5bb4b53371fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB1412E-1C51-49B4-85F1-18F4F3FEC7B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FCC102-4855-4C6B-8EB3-38E6888FF996}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -947,28 +1013,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB1412E-1C51-49B4-85F1-18F4F3FEC7B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A815010F-4D78-43EB-9202-5ECC7A0D687D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="49cd7b62-f0a9-4627-9f20-5bb4b53371fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>